--- a/Fall 2023 Schedule-2.xlsx
+++ b/Fall 2023 Schedule-2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="407">
   <si>
     <t>Term</t>
   </si>
@@ -421,294 +421,273 @@
     <t>85156</t>
   </si>
   <si>
+    <t>COMPSCI</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>INTRO PROGRAMMING</t>
+  </si>
+  <si>
+    <t>76904</t>
+  </si>
+  <si>
+    <t>Herter 227</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>PGMG METHODOLOGY</t>
+  </si>
+  <si>
+    <t>76908</t>
+  </si>
+  <si>
+    <t>ILCN151</t>
+  </si>
+  <si>
+    <t>Minea</t>
+  </si>
+  <si>
+    <t>Systems</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>CMPTR SYS PRINC</t>
+  </si>
+  <si>
+    <t>76909</t>
+  </si>
+  <si>
+    <t>Bartltt 65</t>
+  </si>
+  <si>
+    <t>Chiu</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>RSNG UNDER UNCERTAINTY</t>
+  </si>
+  <si>
+    <t>76905</t>
+  </si>
+  <si>
+    <t>ELABII0119</t>
+  </si>
+  <si>
+    <t>Haas</t>
+  </si>
+  <si>
+    <t>83523</t>
+  </si>
+  <si>
+    <t>MOR1N375</t>
+  </si>
+  <si>
     <t>Data Science</t>
   </si>
   <si>
-    <t>580</t>
-  </si>
-  <si>
-    <t>INTRO NUMRICL CMPTNG W/PYTHON</t>
-  </si>
-  <si>
-    <t>Was 590N.</t>
-  </si>
-  <si>
-    <t>76469</t>
-  </si>
-  <si>
-    <t>Online</t>
+    <t>250</t>
+  </si>
+  <si>
+    <t>INTRO TO COMPUTATION</t>
+  </si>
+  <si>
+    <t>76886</t>
+  </si>
+  <si>
+    <t>Barrington, Parvini</t>
+  </si>
+  <si>
+    <t>76978</t>
+  </si>
+  <si>
+    <t>Morr2 131</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>INTRO TO ALGORITHMS</t>
+  </si>
+  <si>
+    <t>76888</t>
+  </si>
+  <si>
+    <t>Goes 20</t>
+  </si>
+  <si>
+    <t>Sheldon</t>
+  </si>
+  <si>
+    <t>76949</t>
+  </si>
+  <si>
+    <t>Parvini</t>
+  </si>
+  <si>
+    <t>SFE</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>INTRO TO SOFTWARE ENGINEERING</t>
+  </si>
+  <si>
+    <t>76890</t>
+  </si>
+  <si>
+    <t>Anderson</t>
+  </si>
+  <si>
+    <t>76925</t>
+  </si>
+  <si>
+    <t>CS 142</t>
+  </si>
+  <si>
+    <t>77019</t>
+  </si>
+  <si>
+    <t>Hldswth203</t>
+  </si>
+  <si>
+    <t>Rattigan</t>
+  </si>
+  <si>
+    <t>325</t>
+  </si>
+  <si>
+    <t>INTRO TO HUMAN CMPTR INTERACTN</t>
+  </si>
+  <si>
+    <t>76879</t>
+  </si>
+  <si>
+    <t>EnginLb303</t>
+  </si>
+  <si>
+    <t>Swanier</t>
+  </si>
+  <si>
+    <t>326</t>
+  </si>
+  <si>
+    <t>WEB PROGRAMMING</t>
+  </si>
+  <si>
+    <t>76878</t>
+  </si>
+  <si>
+    <t>SC0W245</t>
+  </si>
+  <si>
+    <t>328</t>
+  </si>
+  <si>
+    <t>MOBILE HEALTH SENSING&amp;ANALYTCS</t>
+  </si>
+  <si>
+    <t>84823</t>
+  </si>
+  <si>
+    <t>Ganesan</t>
+  </si>
+  <si>
+    <t>335</t>
+  </si>
+  <si>
+    <t>INSIDE BOX:HOW CMPTRS WORK</t>
+  </si>
+  <si>
+    <t>77021</t>
+  </si>
+  <si>
+    <t>Weems</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>PRACT &amp; APPLICS OF DATA MGMT</t>
+  </si>
+  <si>
+    <t>76919</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>10:10 AM - 12:05 PM</t>
+  </si>
+  <si>
+    <t>ILCS120</t>
+  </si>
+  <si>
+    <t>83784</t>
+  </si>
+  <si>
+    <t>Wed</t>
+  </si>
+  <si>
+    <t>Serafini</t>
+  </si>
+  <si>
+    <t>Cybersec</t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>INTRO COMPUTER/NETWRK SECURITY</t>
+  </si>
+  <si>
+    <t>76907</t>
+  </si>
+  <si>
+    <t>AgEngin119</t>
+  </si>
+  <si>
+    <t>Misra</t>
+  </si>
+  <si>
+    <t>365</t>
+  </si>
+  <si>
+    <t>DIGITAL FORENSICS</t>
+  </si>
+  <si>
+    <t>77026</t>
+  </si>
+  <si>
+    <t>HasbAd 124</t>
+  </si>
+  <si>
+    <t>Levine</t>
+  </si>
+  <si>
+    <t>377</t>
+  </si>
+  <si>
+    <t>OPERATING SYSTEMS</t>
+  </si>
+  <si>
+    <t>76876</t>
   </si>
   <si>
     <t>On-Line</t>
   </si>
   <si>
-    <t>Montazeralghaem</t>
-  </si>
-  <si>
-    <t>84531</t>
-  </si>
-  <si>
-    <t>COMPSCI</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>INTRO PROGRAMMING</t>
-  </si>
-  <si>
-    <t>76904</t>
-  </si>
-  <si>
-    <t>Herter 227</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>PGMG METHODOLOGY</t>
-  </si>
-  <si>
-    <t>76908</t>
-  </si>
-  <si>
-    <t>ILCN151</t>
-  </si>
-  <si>
-    <t>Minea</t>
-  </si>
-  <si>
-    <t>Systems</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>CMPTR SYS PRINC</t>
-  </si>
-  <si>
-    <t>76909</t>
-  </si>
-  <si>
-    <t>Bartltt 65</t>
-  </si>
-  <si>
-    <t>Chiu</t>
-  </si>
-  <si>
-    <t>Math</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>RSNG UNDER UNCERTAINTY</t>
-  </si>
-  <si>
-    <t>76905</t>
-  </si>
-  <si>
-    <t>ELABII0119</t>
-  </si>
-  <si>
-    <t>Haas</t>
-  </si>
-  <si>
-    <t>83523</t>
-  </si>
-  <si>
-    <t>MOR1N375</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>INTRO TO COMPUTATION</t>
-  </si>
-  <si>
-    <t>76886</t>
-  </si>
-  <si>
-    <t>Barrington, Parvini</t>
-  </si>
-  <si>
-    <t>76978</t>
-  </si>
-  <si>
-    <t>Morr2 131</t>
-  </si>
-  <si>
-    <t>311</t>
-  </si>
-  <si>
-    <t>INTRO TO ALGORITHMS</t>
-  </si>
-  <si>
-    <t>76888</t>
-  </si>
-  <si>
-    <t>Goes 20</t>
-  </si>
-  <si>
-    <t>Sheldon</t>
-  </si>
-  <si>
-    <t>76949</t>
-  </si>
-  <si>
-    <t>Parvini</t>
-  </si>
-  <si>
-    <t>SFE</t>
-  </si>
-  <si>
-    <t>320</t>
-  </si>
-  <si>
-    <t>INTRO TO SOFTWARE ENGINEERING</t>
-  </si>
-  <si>
-    <t>76890</t>
-  </si>
-  <si>
-    <t>Anderson</t>
-  </si>
-  <si>
-    <t>76925</t>
-  </si>
-  <si>
-    <t>CS 142</t>
-  </si>
-  <si>
-    <t>77019</t>
-  </si>
-  <si>
-    <t>Hldswth203</t>
-  </si>
-  <si>
-    <t>Rattigan</t>
-  </si>
-  <si>
-    <t>325</t>
-  </si>
-  <si>
-    <t>INTRO TO HUMAN CMPTR INTERACTN</t>
-  </si>
-  <si>
-    <t>76879</t>
-  </si>
-  <si>
-    <t>EnginLb303</t>
-  </si>
-  <si>
-    <t>Swanier</t>
-  </si>
-  <si>
-    <t>326</t>
-  </si>
-  <si>
-    <t>WEB PROGRAMMING</t>
-  </si>
-  <si>
-    <t>76878</t>
-  </si>
-  <si>
-    <t>SC0W245</t>
-  </si>
-  <si>
-    <t>328</t>
-  </si>
-  <si>
-    <t>MOBILE HEALTH SENSING&amp;ANALYTCS</t>
-  </si>
-  <si>
-    <t>84823</t>
-  </si>
-  <si>
-    <t>Ganesan</t>
-  </si>
-  <si>
-    <t>335</t>
-  </si>
-  <si>
-    <t>INSIDE BOX:HOW CMPTRS WORK</t>
-  </si>
-  <si>
-    <t>77021</t>
-  </si>
-  <si>
-    <t>Weems</t>
-  </si>
-  <si>
-    <t>345</t>
-  </si>
-  <si>
-    <t>PRACT &amp; APPLICS OF DATA MGMT</t>
-  </si>
-  <si>
-    <t>76919</t>
-  </si>
-  <si>
-    <t>Mon</t>
-  </si>
-  <si>
-    <t>10:10 AM - 12:05 PM</t>
-  </si>
-  <si>
-    <t>ILCS120</t>
-  </si>
-  <si>
-    <t>83784</t>
-  </si>
-  <si>
-    <t>Wed</t>
-  </si>
-  <si>
-    <t>Serafini</t>
-  </si>
-  <si>
-    <t>Cybersec</t>
-  </si>
-  <si>
-    <t>360</t>
-  </si>
-  <si>
-    <t>INTRO COMPUTER/NETWRK SECURITY</t>
-  </si>
-  <si>
-    <t>76907</t>
-  </si>
-  <si>
-    <t>AgEngin119</t>
-  </si>
-  <si>
-    <t>Misra</t>
-  </si>
-  <si>
-    <t>365</t>
-  </si>
-  <si>
-    <t>DIGITAL FORENSICS</t>
-  </si>
-  <si>
-    <t>77026</t>
-  </si>
-  <si>
-    <t>HasbAd 124</t>
-  </si>
-  <si>
-    <t>Levine</t>
-  </si>
-  <si>
-    <t>377</t>
-  </si>
-  <si>
-    <t>OPERATING SYSTEMS</t>
-  </si>
-  <si>
-    <t>76876</t>
-  </si>
-  <si>
     <t>Klemperer</t>
   </si>
   <si>
@@ -772,339 +751,324 @@
     <t>Kermani</t>
   </si>
   <si>
-    <t>461</t>
+    <t>ACTIVE</t>
+  </si>
+  <si>
+    <t>490A</t>
+  </si>
+  <si>
+    <t>APPLICATIONS OF NLP</t>
+  </si>
+  <si>
+    <t>Prop#8441 Conv 490A to 485</t>
+  </si>
+  <si>
+    <t>76999</t>
+  </si>
+  <si>
+    <t>O'Connor</t>
+  </si>
+  <si>
+    <t>490STA</t>
+  </si>
+  <si>
+    <t>SCALABLE WEB SYSTEMS</t>
+  </si>
+  <si>
+    <t>Prop#10060 497S to 490STA; Prop#8971 Conv 497S to 426(IP).</t>
+  </si>
+  <si>
+    <t>77006</t>
+  </si>
+  <si>
+    <t>513</t>
+  </si>
+  <si>
+    <t>LOGIC IN COMPUTER SCIENCE</t>
+  </si>
+  <si>
+    <t>Meets w/613; 01=UG, 02=Grad.</t>
+  </si>
+  <si>
+    <t>83785</t>
+  </si>
+  <si>
+    <t>83786</t>
+  </si>
+  <si>
+    <t>514</t>
+  </si>
+  <si>
+    <t>ALGORITHMS FOR DATA SCIENCE</t>
+  </si>
+  <si>
+    <t>01=UG, 02=Grad. Save 50 IGSR.</t>
+  </si>
+  <si>
+    <t>76934</t>
+  </si>
+  <si>
+    <t>Musco</t>
+  </si>
+  <si>
+    <t>76935</t>
+  </si>
+  <si>
+    <t>84297</t>
+  </si>
+  <si>
+    <t>RLEARN</t>
+  </si>
+  <si>
+    <t>515</t>
+  </si>
+  <si>
+    <t>ALGRTHMS,GAME THEORY, FAIRNESS</t>
+  </si>
+  <si>
+    <t>01=UG, 02=Grad.</t>
+  </si>
+  <si>
+    <t>77010</t>
+  </si>
+  <si>
+    <t>FlintL201</t>
+  </si>
+  <si>
+    <t>Zick</t>
+  </si>
+  <si>
+    <t>77011</t>
+  </si>
+  <si>
+    <t>520</t>
+  </si>
+  <si>
+    <t>THEORY AND PRACTICE-SOFTENGIN</t>
+  </si>
+  <si>
+    <t>01=UG, 02=Grad. -02 Save 50 IGSR.</t>
+  </si>
+  <si>
+    <t>76932</t>
+  </si>
+  <si>
+    <t>Herter 231</t>
+  </si>
+  <si>
+    <t>Conboy</t>
+  </si>
+  <si>
+    <t>76933</t>
+  </si>
+  <si>
+    <t>524</t>
+  </si>
+  <si>
+    <t>HEALTH INFORMATICS/DATA SCI</t>
+  </si>
+  <si>
+    <t>Meets w/INFO 324. 01=UGs; 02=Grads.</t>
+  </si>
+  <si>
+    <t>84780</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>84781</t>
+  </si>
+  <si>
+    <t>532</t>
+  </si>
+  <si>
+    <t>SYSTEMS FOR DATA SCIENCE</t>
+  </si>
+  <si>
+    <t>76938</t>
+  </si>
+  <si>
+    <t>76939</t>
+  </si>
+  <si>
+    <t>560</t>
+  </si>
+  <si>
+    <t>INTRO COMPUTER&amp;NETWRK SECURITY</t>
+  </si>
+  <si>
+    <t>01=UG, 02=Grad. -02 Save 16 IGSR.</t>
+  </si>
+  <si>
+    <t>77008</t>
+  </si>
+  <si>
+    <t>77034</t>
+  </si>
+  <si>
+    <t>84200</t>
+  </si>
+  <si>
+    <t>563</t>
+  </si>
+  <si>
+    <t>INTERNET LAW AND POLICY</t>
+  </si>
+  <si>
+    <t>77001</t>
+  </si>
+  <si>
+    <t>Cable</t>
+  </si>
+  <si>
+    <t>77002</t>
+  </si>
+  <si>
+    <t>84282</t>
+  </si>
+  <si>
+    <t>578</t>
+  </si>
+  <si>
+    <t>DISTRIBUTED COMPTNG AND SYSTMS</t>
+  </si>
+  <si>
+    <t>Was 590CC; 01=UG; 02=Grad. -02 Save 15.</t>
+  </si>
+  <si>
+    <t>84533</t>
+  </si>
+  <si>
+    <t>Venkataramani</t>
+  </si>
+  <si>
+    <t>84720</t>
+  </si>
+  <si>
+    <t>589</t>
+  </si>
+  <si>
+    <t>MACHINE LEARNING</t>
+  </si>
+  <si>
+    <t>01=UG, 02=Grad. Save 40 IGSR.</t>
+  </si>
+  <si>
+    <t>76944</t>
+  </si>
+  <si>
+    <t>Guan</t>
+  </si>
+  <si>
+    <t>76945</t>
+  </si>
+  <si>
+    <t>611</t>
+  </si>
+  <si>
+    <t>ADVANCED ALGORITHMS</t>
+  </si>
+  <si>
+    <t>Save 40 IGSR.</t>
+  </si>
+  <si>
+    <t>76897</t>
+  </si>
+  <si>
+    <t>Hasbrck134</t>
+  </si>
+  <si>
+    <t>Le</t>
+  </si>
+  <si>
+    <t>613</t>
+  </si>
+  <si>
+    <t>ADV LOGIC IN COMPUTER SCIENCE</t>
+  </si>
+  <si>
+    <t>Meets w/513</t>
+  </si>
+  <si>
+    <t>83872</t>
+  </si>
+  <si>
+    <t>635</t>
+  </si>
+  <si>
+    <t>MODERN COMPUTER ARCHITECTURE</t>
+  </si>
+  <si>
+    <t>Save 10 IGSR.</t>
+  </si>
+  <si>
+    <t>84534</t>
+  </si>
+  <si>
+    <t>CS 140</t>
+  </si>
+  <si>
+    <t>646</t>
+  </si>
+  <si>
+    <t>INFORMATION RETRIEVAL</t>
+  </si>
+  <si>
+    <t>Save 15 IGSR.</t>
+  </si>
+  <si>
+    <t>77014</t>
+  </si>
+  <si>
+    <t>GsmnAdd 51</t>
+  </si>
+  <si>
+    <t>Zamani</t>
+  </si>
+  <si>
+    <t>655</t>
+  </si>
+  <si>
+    <t>PERFORMANCE EVALUATION</t>
+  </si>
+  <si>
+    <t>84773</t>
+  </si>
+  <si>
+    <t>10:10 AM - 11:25 AM</t>
+  </si>
+  <si>
+    <t>Towsley</t>
+  </si>
+  <si>
+    <t>660</t>
+  </si>
+  <si>
+    <t>ADV INFORMATION ASSURANCE</t>
+  </si>
+  <si>
+    <t>84700</t>
+  </si>
+  <si>
+    <t>Houmansadr</t>
+  </si>
+  <si>
+    <t>661</t>
   </si>
   <si>
     <t>SECURE DISTRIBUTED SYSTEMS</t>
   </si>
   <si>
-    <t>76987</t>
-  </si>
-  <si>
-    <t>01:00 AM - 01:00 AM</t>
+    <t>Save 20 IGSR.</t>
+  </si>
+  <si>
+    <t>76989</t>
   </si>
   <si>
     <t>Stone</t>
   </si>
   <si>
-    <t>ACTIVE</t>
-  </si>
-  <si>
-    <t>490A</t>
-  </si>
-  <si>
-    <t>APPLICATIONS OF NLP</t>
-  </si>
-  <si>
-    <t>Prop#8441 Conv 490A to 485</t>
-  </si>
-  <si>
-    <t>76999</t>
-  </si>
-  <si>
-    <t>O'Connor</t>
-  </si>
-  <si>
-    <t>490STA</t>
-  </si>
-  <si>
-    <t>SCALABLE WEB SYSTEMS</t>
-  </si>
-  <si>
-    <t>Prop#10060 497S to 490STA; Prop#8971 Conv 497S to 426(IP).</t>
-  </si>
-  <si>
-    <t>77006</t>
-  </si>
-  <si>
-    <t>513</t>
-  </si>
-  <si>
-    <t>LOGIC IN COMPUTER SCIENCE</t>
-  </si>
-  <si>
-    <t>Meets w/613; 01=UG, 02=Grad.</t>
-  </si>
-  <si>
-    <t>83785</t>
-  </si>
-  <si>
-    <t>83786</t>
-  </si>
-  <si>
-    <t>514</t>
-  </si>
-  <si>
-    <t>ALGORITHMS FOR DATA SCIENCE</t>
-  </si>
-  <si>
-    <t>01=UG, 02=Grad. Save 50 IGSR.</t>
-  </si>
-  <si>
-    <t>76934</t>
-  </si>
-  <si>
-    <t>Musco</t>
-  </si>
-  <si>
-    <t>76935</t>
-  </si>
-  <si>
-    <t>84297</t>
-  </si>
-  <si>
-    <t>RLEARN</t>
-  </si>
-  <si>
-    <t>515</t>
-  </si>
-  <si>
-    <t>ALGRTHMS,GAME THEORY, FAIRNESS</t>
-  </si>
-  <si>
-    <t>01=UG, 02=Grad.</t>
-  </si>
-  <si>
-    <t>77010</t>
-  </si>
-  <si>
-    <t>FlintL201</t>
-  </si>
-  <si>
-    <t>Zick</t>
-  </si>
-  <si>
-    <t>77011</t>
-  </si>
-  <si>
-    <t>520</t>
-  </si>
-  <si>
-    <t>THEORY AND PRACTICE-SOFTENGIN</t>
-  </si>
-  <si>
-    <t>01=UG, 02=Grad. -02 Save 50 IGSR.</t>
-  </si>
-  <si>
-    <t>76932</t>
-  </si>
-  <si>
-    <t>Herter 231</t>
-  </si>
-  <si>
-    <t>Conboy</t>
-  </si>
-  <si>
-    <t>76933</t>
-  </si>
-  <si>
-    <t>524</t>
-  </si>
-  <si>
-    <t>HEALTH INFORMATICS/DATA SCI</t>
-  </si>
-  <si>
-    <t>Meets w/INFO 324. 01=UGs; 02=Grads.</t>
-  </si>
-  <si>
-    <t>84780</t>
-  </si>
-  <si>
-    <t>Lee</t>
-  </si>
-  <si>
-    <t>84781</t>
-  </si>
-  <si>
-    <t>532</t>
-  </si>
-  <si>
-    <t>SYSTEMS FOR DATA SCIENCE</t>
-  </si>
-  <si>
-    <t>76938</t>
-  </si>
-  <si>
-    <t>76939</t>
-  </si>
-  <si>
-    <t>85043</t>
-  </si>
-  <si>
-    <t>560</t>
-  </si>
-  <si>
-    <t>INTRO COMPUTER&amp;NETWRK SECURITY</t>
-  </si>
-  <si>
-    <t>01=UG, 02=Grad. -02 Save 16 IGSR.</t>
-  </si>
-  <si>
-    <t>77008</t>
-  </si>
-  <si>
-    <t>77034</t>
-  </si>
-  <si>
-    <t>84200</t>
-  </si>
-  <si>
-    <t>563</t>
-  </si>
-  <si>
-    <t>INTERNET LAW AND POLICY</t>
-  </si>
-  <si>
-    <t>77001</t>
-  </si>
-  <si>
-    <t>Cable</t>
-  </si>
-  <si>
-    <t>77002</t>
-  </si>
-  <si>
-    <t>84282</t>
-  </si>
-  <si>
-    <t>578</t>
-  </si>
-  <si>
-    <t>DISTRIBUTED COMPTNG AND SYSTMS</t>
-  </si>
-  <si>
-    <t>Was 590CC; 01=UG; 02=Grad. -02 Save 15.</t>
-  </si>
-  <si>
-    <t>84533</t>
-  </si>
-  <si>
-    <t>Venkataramani</t>
-  </si>
-  <si>
-    <t>84720</t>
-  </si>
-  <si>
-    <t>589</t>
-  </si>
-  <si>
-    <t>MACHINE LEARNING</t>
-  </si>
-  <si>
-    <t>01=UG, 02=Grad. Save 40 IGSR.</t>
-  </si>
-  <si>
-    <t>76944</t>
-  </si>
-  <si>
-    <t>Guan</t>
-  </si>
-  <si>
-    <t>76945</t>
-  </si>
-  <si>
-    <t>84371</t>
-  </si>
-  <si>
-    <t>611</t>
-  </si>
-  <si>
-    <t>ADVANCED ALGORITHMS</t>
-  </si>
-  <si>
-    <t>Save 40 IGSR.</t>
-  </si>
-  <si>
-    <t>76897</t>
-  </si>
-  <si>
-    <t>Hasbrck134</t>
-  </si>
-  <si>
-    <t>Le</t>
-  </si>
-  <si>
-    <t>613</t>
-  </si>
-  <si>
-    <t>ADV LOGIC IN COMPUTER SCIENCE</t>
-  </si>
-  <si>
-    <t>Meets w/513</t>
-  </si>
-  <si>
-    <t>83872</t>
-  </si>
-  <si>
-    <t>635</t>
-  </si>
-  <si>
-    <t>MODERN COMPUTER ARCHITECTURE</t>
-  </si>
-  <si>
-    <t>Save 10 IGSR.</t>
-  </si>
-  <si>
-    <t>84534</t>
-  </si>
-  <si>
-    <t>CS 140</t>
-  </si>
-  <si>
-    <t>646</t>
-  </si>
-  <si>
-    <t>INFORMATION RETRIEVAL</t>
-  </si>
-  <si>
-    <t>Save 15 IGSR.</t>
-  </si>
-  <si>
-    <t>77014</t>
-  </si>
-  <si>
-    <t>GsmnAdd 51</t>
-  </si>
-  <si>
-    <t>Zamani</t>
-  </si>
-  <si>
-    <t>655</t>
-  </si>
-  <si>
-    <t>PERFORMANCE EVALUATION</t>
-  </si>
-  <si>
-    <t>84773</t>
-  </si>
-  <si>
-    <t>10:10 AM - 11:25 AM</t>
-  </si>
-  <si>
-    <t>Towsley</t>
-  </si>
-  <si>
-    <t>660</t>
-  </si>
-  <si>
-    <t>ADV INFORMATION ASSURANCE</t>
-  </si>
-  <si>
-    <t>84700</t>
-  </si>
-  <si>
-    <t>Houmansadr</t>
-  </si>
-  <si>
-    <t>661</t>
-  </si>
-  <si>
-    <t>Save 20 IGSR.</t>
-  </si>
-  <si>
-    <t>76989</t>
-  </si>
-  <si>
     <t>84231</t>
   </si>
   <si>
@@ -1121,9 +1085,6 @@
   </si>
   <si>
     <t>Gan, Maji</t>
-  </si>
-  <si>
-    <t>85054</t>
   </si>
   <si>
     <t>687</t>
@@ -1281,7 +1242,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1299,6 +1260,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1350,7 +1317,7 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -1670,7 +1637,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:T114"/>
+  <dimension ref="A1:T108"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -3829,10 +3796,10 @@
         <v>21</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>135</v>
+        <v>23</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>136</v>
@@ -3840,105 +3807,101 @@
       <c r="G36" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="H36" s="6" t="s">
-        <v>138</v>
-      </c>
+      <c r="H36" s="7"/>
       <c r="I36" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J36" s="8">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K36" s="8"/>
       <c r="L36" s="5" t="s">
         <v>26</v>
       </c>
       <c r="M36" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="O36" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="P36" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="N36" s="7" t="s">
+      <c r="Q36" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="R36" s="8">
+        <v>150</v>
+      </c>
+      <c r="S36" s="8">
+        <v>3</v>
+      </c>
+      <c r="T36" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="A37" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="O36" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="P36" s="6" t="s">
+      <c r="G37" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="Q36" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="R36" s="8">
-        <v>100</v>
-      </c>
-      <c r="S36" s="8">
-        <v>1</v>
-      </c>
-      <c r="T36" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
-      <c r="A37" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>138</v>
-      </c>
+      <c r="H37" s="7"/>
       <c r="I37" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J37" s="8">
-        <v>5</v>
+        <v>340</v>
       </c>
       <c r="K37" s="8"/>
       <c r="L37" s="5" t="s">
         <v>26</v>
       </c>
       <c r="M37" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O37" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P37" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="N37" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="P37" s="6" t="s">
-        <v>141</v>
-      </c>
       <c r="Q37" s="6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="R37" s="8">
-        <v>5</v>
+        <v>340</v>
       </c>
       <c r="S37" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T37" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="5" t="s">
         <v>19</v>
       </c>
@@ -3949,54 +3912,56 @@
         <v>21</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J38" s="8">
+        <v>330</v>
+      </c>
+      <c r="K38" s="8">
         <v>150</v>
       </c>
-      <c r="K38" s="8"/>
       <c r="L38" s="5" t="s">
         <v>26</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>125</v>
+        <v>39</v>
       </c>
       <c r="O38" s="6" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="P38" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q38" s="6" t="s">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="R38" s="8">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="S38" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T38" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="5" t="s">
         <v>19</v>
       </c>
@@ -4007,45 +3972,47 @@
         <v>21</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>23</v>
+        <v>151</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J39" s="8">
-        <v>340</v>
-      </c>
-      <c r="K39" s="8"/>
+        <v>193</v>
+      </c>
+      <c r="K39" s="8">
+        <v>75</v>
+      </c>
       <c r="L39" s="5" t="s">
         <v>26</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="O39" s="6" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="P39" s="6" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q39" s="6" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="R39" s="8">
-        <v>340</v>
+        <v>118</v>
       </c>
       <c r="S39" s="8">
         <v>4</v>
@@ -4054,7 +4021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="5" t="s">
         <v>19</v>
       </c>
@@ -4062,50 +4029,46 @@
         <v>20</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="6" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="J40" s="8">
-        <v>330</v>
-      </c>
-      <c r="K40" s="8">
-        <v>150</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="K40" s="8"/>
       <c r="L40" s="5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M40" s="5" t="s">
         <v>157</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="O40" s="6" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="P40" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="Q40" s="6" t="s">
-        <v>159</v>
-      </c>
+      <c r="Q40" s="7"/>
       <c r="R40" s="8">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="S40" s="8">
         <v>4</v>
@@ -4114,7 +4077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="5" t="s">
         <v>19</v>
       </c>
@@ -4125,23 +4088,23 @@
         <v>21</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E41" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="G41" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>162</v>
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J41" s="8">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="K41" s="8">
         <v>75</v>
@@ -4150,22 +4113,22 @@
         <v>26</v>
       </c>
       <c r="M41" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="O41" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="P41" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q41" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="N41" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="O41" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="P41" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q41" s="6" t="s">
-        <v>165</v>
-      </c>
       <c r="R41" s="8">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="S41" s="8">
         <v>4</v>
@@ -4174,7 +4137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="5" t="s">
         <v>19</v>
       </c>
@@ -4182,46 +4145,50 @@
         <v>20</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E42" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F42" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="G42" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>162</v>
       </c>
       <c r="H42" s="7"/>
       <c r="I42" s="6" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="J42" s="8">
         <v>200</v>
       </c>
-      <c r="K42" s="8"/>
+      <c r="K42" s="8">
+        <v>75</v>
+      </c>
       <c r="L42" s="5" t="s">
         <v>33</v>
       </c>
       <c r="M42" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>28</v>
+        <v>125</v>
       </c>
       <c r="O42" s="6" t="s">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="P42" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q42" s="7"/>
+        <v>165</v>
+      </c>
+      <c r="Q42" s="6" t="s">
+        <v>163</v>
+      </c>
       <c r="R42" s="8">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="S42" s="8">
         <v>4</v>
@@ -4230,7 +4197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="5" t="s">
         <v>19</v>
       </c>
@@ -4241,44 +4208,44 @@
         <v>21</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J43" s="8">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K43" s="8">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="L43" s="5" t="s">
         <v>26</v>
       </c>
       <c r="M43" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N43" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O43" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="P43" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q43" s="6" t="s">
         <v>170</v>
-      </c>
-      <c r="N43" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="O43" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="P43" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q43" s="6" t="s">
-        <v>171</v>
       </c>
       <c r="R43" s="8">
         <v>125</v>
@@ -4290,7 +4257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="5" t="s">
         <v>19</v>
       </c>
@@ -4301,44 +4268,44 @@
         <v>21</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H44" s="7"/>
       <c r="I44" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J44" s="8">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K44" s="8">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="L44" s="5" t="s">
         <v>33</v>
       </c>
       <c r="M44" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="N44" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O44" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P44" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q44" s="6" t="s">
         <v>172</v>
-      </c>
-      <c r="N44" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="O44" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="P44" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q44" s="6" t="s">
-        <v>171</v>
       </c>
       <c r="R44" s="8">
         <v>125</v>
@@ -4350,7 +4317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="5" t="s">
         <v>19</v>
       </c>
@@ -4358,13 +4325,13 @@
         <v>20</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>21</v>
+        <v>173</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>135</v>
+        <v>23</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>174</v>
@@ -4374,13 +4341,13 @@
       </c>
       <c r="H45" s="7"/>
       <c r="I45" s="6" t="s">
-        <v>21</v>
+        <v>173</v>
       </c>
       <c r="J45" s="8">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="K45" s="8">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="L45" s="5" t="s">
         <v>26</v>
@@ -4392,16 +4359,16 @@
         <v>39</v>
       </c>
       <c r="O45" s="6" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="P45" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q45" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="Q45" s="6" t="s">
-        <v>178</v>
-      </c>
       <c r="R45" s="8">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="S45" s="8">
         <v>4</v>
@@ -4410,7 +4377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="5" t="s">
         <v>19</v>
       </c>
@@ -4418,13 +4385,13 @@
         <v>20</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>21</v>
+        <v>173</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>135</v>
+        <v>23</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>174</v>
@@ -4434,34 +4401,34 @@
       </c>
       <c r="H46" s="7"/>
       <c r="I46" s="6" t="s">
-        <v>21</v>
+        <v>173</v>
       </c>
       <c r="J46" s="8">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="K46" s="8">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="L46" s="5" t="s">
         <v>33</v>
       </c>
       <c r="M46" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="N46" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O46" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="P46" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="N46" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="O46" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="P46" s="6" t="s">
-        <v>177</v>
-      </c>
       <c r="Q46" s="6" t="s">
-        <v>180</v>
+        <v>62</v>
       </c>
       <c r="R46" s="8">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="S46" s="8">
         <v>4</v>
@@ -4470,7 +4437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="5" t="s">
         <v>19</v>
       </c>
@@ -4478,23 +4445,23 @@
         <v>20</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="H47" s="7"/>
       <c r="I47" s="6" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="J47" s="8">
         <v>50</v>
@@ -4503,22 +4470,22 @@
         <v>5</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="N47" s="6" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="O47" s="6" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="P47" s="6" t="s">
-        <v>35</v>
+        <v>181</v>
       </c>
       <c r="Q47" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="R47" s="8">
         <v>45</v>
@@ -4530,7 +4497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="5" t="s">
         <v>19</v>
       </c>
@@ -4538,56 +4505,54 @@
         <v>20</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>181</v>
+        <v>21</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H48" s="7"/>
       <c r="I48" s="6" t="s">
-        <v>181</v>
+        <v>21</v>
       </c>
       <c r="J48" s="8">
-        <v>50</v>
-      </c>
-      <c r="K48" s="8">
-        <v>5</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="K48" s="8"/>
       <c r="L48" s="5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M48" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O48" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P48" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="N48" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="O48" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="P48" s="6" t="s">
+      <c r="Q48" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="Q48" s="6" t="s">
-        <v>62</v>
-      </c>
       <c r="R48" s="8">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="S48" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T48" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
@@ -4598,50 +4563,50 @@
         <v>20</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>181</v>
+        <v>21</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="6" t="s">
-        <v>181</v>
+        <v>21</v>
       </c>
       <c r="J49" s="8">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="K49" s="8">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="M49" s="5" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="N49" s="6" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="O49" s="6" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="P49" s="6" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q49" s="6" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="R49" s="8">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="S49" s="8">
         <v>4</v>
@@ -4661,45 +4626,47 @@
         <v>21</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H50" s="7"/>
       <c r="I50" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J50" s="8">
-        <v>80</v>
-      </c>
-      <c r="K50" s="8"/>
+        <v>66</v>
+      </c>
+      <c r="K50" s="8">
+        <v>25</v>
+      </c>
       <c r="L50" s="5" t="s">
         <v>26</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>28</v>
+        <v>125</v>
       </c>
       <c r="O50" s="6" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="P50" s="6" t="s">
-        <v>194</v>
+        <v>48</v>
       </c>
       <c r="Q50" s="6" t="s">
         <v>195</v>
       </c>
       <c r="R50" s="8">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="S50" s="8">
         <v>3</v>
@@ -4719,10 +4686,10 @@
         <v>21</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>196</v>
@@ -4735,11 +4702,9 @@
         <v>21</v>
       </c>
       <c r="J51" s="8">
-        <v>106</v>
-      </c>
-      <c r="K51" s="8">
-        <v>19</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="K51" s="8"/>
       <c r="L51" s="5" t="s">
         <v>26</v>
       </c>
@@ -4747,25 +4712,25 @@
         <v>198</v>
       </c>
       <c r="N51" s="6" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="O51" s="6" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="P51" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q51" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="Q51" s="6" t="s">
-        <v>159</v>
-      </c>
       <c r="R51" s="8">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="S51" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T51" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
@@ -4779,10 +4744,10 @@
         <v>21</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>63</v>
+        <v>159</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>200</v>
@@ -4795,10 +4760,10 @@
         <v>21</v>
       </c>
       <c r="J52" s="8">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="K52" s="8">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="L52" s="5" t="s">
         <v>26</v>
@@ -4807,19 +4772,19 @@
         <v>202</v>
       </c>
       <c r="N52" s="6" t="s">
-        <v>125</v>
+        <v>203</v>
       </c>
       <c r="O52" s="6" t="s">
-        <v>68</v>
+        <v>204</v>
       </c>
       <c r="P52" s="6" t="s">
-        <v>48</v>
+        <v>205</v>
       </c>
       <c r="Q52" s="6" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="R52" s="8">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="S52" s="8">
         <v>3</v>
@@ -4828,7 +4793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="16.5">
       <c r="A53" s="5" t="s">
         <v>19</v>
       </c>
@@ -4839,45 +4804,47 @@
         <v>21</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>78</v>
+        <v>159</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H53" s="7"/>
       <c r="I53" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J53" s="8">
-        <v>55</v>
-      </c>
-      <c r="K53" s="8"/>
+        <v>99</v>
+      </c>
+      <c r="K53" s="8">
+        <v>15</v>
+      </c>
       <c r="L53" s="5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M53" s="5" t="s">
         <v>206</v>
       </c>
       <c r="N53" s="6" t="s">
-        <v>28</v>
+        <v>207</v>
       </c>
       <c r="O53" s="6" t="s">
-        <v>29</v>
+        <v>204</v>
       </c>
       <c r="P53" s="6" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="Q53" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="R53" s="8">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="S53" s="8">
         <v>3</v>
@@ -4897,47 +4864,45 @@
         <v>21</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>135</v>
+        <v>209</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H54" s="7"/>
       <c r="I54" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J54" s="8">
-        <v>99</v>
-      </c>
-      <c r="K54" s="8">
-        <v>15</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="K54" s="8"/>
       <c r="L54" s="5" t="s">
         <v>26</v>
       </c>
       <c r="M54" s="5" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="N54" s="6" t="s">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="O54" s="6" t="s">
-        <v>212</v>
+        <v>73</v>
       </c>
       <c r="P54" s="6" t="s">
         <v>213</v>
       </c>
       <c r="Q54" s="6" t="s">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c r="R54" s="8">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="S54" s="8">
         <v>3</v>
@@ -4946,7 +4911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
       <c r="A55" s="5" t="s">
         <v>19</v>
       </c>
@@ -4957,47 +4922,45 @@
         <v>21</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>135</v>
+        <v>209</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="H55" s="7"/>
       <c r="I55" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J55" s="8">
-        <v>99</v>
-      </c>
-      <c r="K55" s="8">
-        <v>15</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="K55" s="8"/>
       <c r="L55" s="5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M55" s="5" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="N55" s="6" t="s">
-        <v>215</v>
+        <v>28</v>
       </c>
       <c r="O55" s="6" t="s">
-        <v>212</v>
+        <v>51</v>
       </c>
       <c r="P55" s="6" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q55" s="6" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="R55" s="8">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="S55" s="8">
         <v>3</v>
@@ -5017,51 +4980,51 @@
         <v>21</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>217</v>
+        <v>145</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H56" s="7"/>
       <c r="I56" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J56" s="8">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="K56" s="8"/>
       <c r="L56" s="5" t="s">
         <v>26</v>
       </c>
       <c r="M56" s="5" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="N56" s="6" t="s">
         <v>39</v>
       </c>
       <c r="O56" s="6" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="P56" s="6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q56" s="6" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="R56" s="8">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="S56" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T56" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
@@ -5075,45 +5038,45 @@
         <v>21</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>217</v>
+        <v>159</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H57" s="7"/>
       <c r="I57" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J57" s="8">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="K57" s="8"/>
       <c r="L57" s="5" t="s">
         <v>26</v>
       </c>
       <c r="M57" s="5" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="N57" s="6" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="O57" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="P57" s="6" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q57" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="R57" s="8">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="S57" s="8">
         <v>3</v>
@@ -5133,51 +5096,49 @@
         <v>21</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>154</v>
+        <v>63</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H58" s="7"/>
       <c r="I58" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J58" s="8">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="K58" s="8"/>
       <c r="L58" s="5" t="s">
         <v>26</v>
       </c>
       <c r="M58" s="5" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="N58" s="6" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="O58" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="P58" s="6" t="s">
-        <v>141</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="P58" s="7"/>
       <c r="Q58" s="6" t="s">
-        <v>231</v>
+        <v>89</v>
       </c>
       <c r="R58" s="8">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="S58" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T58" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
@@ -5191,45 +5152,45 @@
         <v>21</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H59" s="7"/>
       <c r="I59" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J59" s="8">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="K59" s="8"/>
       <c r="L59" s="5" t="s">
         <v>26</v>
       </c>
       <c r="M59" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N59" s="6" t="s">
         <v>39</v>
       </c>
       <c r="O59" s="6" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="P59" s="6" t="s">
-        <v>235</v>
+        <v>35</v>
       </c>
       <c r="Q59" s="6" t="s">
-        <v>236</v>
+        <v>177</v>
       </c>
       <c r="R59" s="8">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="S59" s="8">
         <v>3</v>
@@ -5238,7 +5199,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="5" t="s">
         <v>19</v>
       </c>
@@ -5249,43 +5210,45 @@
         <v>21</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>63</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H60" s="7"/>
       <c r="I60" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J60" s="8">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="K60" s="8"/>
       <c r="L60" s="5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M60" s="5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="N60" s="6" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="O60" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="P60" s="7"/>
+        <v>73</v>
+      </c>
+      <c r="P60" s="6" t="s">
+        <v>179</v>
+      </c>
       <c r="Q60" s="6" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="R60" s="8">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="S60" s="8">
         <v>3</v>
@@ -5294,7 +5257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="5" t="s">
         <v>19</v>
       </c>
@@ -5305,16 +5268,16 @@
         <v>21</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>63</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="H61" s="7"/>
       <c r="I61" s="6" t="s">
@@ -5325,22 +5288,22 @@
       </c>
       <c r="K61" s="8"/>
       <c r="L61" s="5" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="M61" s="5" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="N61" s="6" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="O61" s="6" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="P61" s="6" t="s">
-        <v>35</v>
+        <v>181</v>
       </c>
       <c r="Q61" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="R61" s="8">
         <v>5</v>
@@ -5363,45 +5326,45 @@
         <v>21</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H62" s="7"/>
       <c r="I62" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J62" s="8">
-        <v>5</v>
+        <v>175</v>
       </c>
       <c r="K62" s="8"/>
       <c r="L62" s="5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M62" s="5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="N62" s="6" t="s">
         <v>39</v>
       </c>
       <c r="O62" s="6" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="P62" s="6" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="Q62" s="6" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="R62" s="8">
-        <v>5</v>
+        <v>175</v>
       </c>
       <c r="S62" s="8">
         <v>3</v>
@@ -5421,45 +5384,45 @@
         <v>21</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>63</v>
+        <v>145</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H63" s="7"/>
       <c r="I63" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J63" s="8">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="K63" s="8"/>
       <c r="L63" s="5" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="M63" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="N63" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O63" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P63" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q63" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="N63" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="O63" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="P63" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q63" s="6" t="s">
-        <v>190</v>
-      </c>
       <c r="R63" s="8">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="S63" s="8">
         <v>3</v>
@@ -5476,33 +5439,35 @@
         <v>20</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>21</v>
+        <v>245</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="F64" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="I64" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="G64" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="H64" s="7"/>
-      <c r="I64" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="J64" s="8">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="K64" s="8"/>
       <c r="L64" s="5" t="s">
         <v>26</v>
       </c>
       <c r="M64" s="5" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="N64" s="6" t="s">
         <v>39</v>
@@ -5511,13 +5476,13 @@
         <v>29</v>
       </c>
       <c r="P64" s="6" t="s">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="Q64" s="6" t="s">
-        <v>36</v>
+        <v>250</v>
       </c>
       <c r="R64" s="8">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="S64" s="8">
         <v>3</v>
@@ -5537,45 +5502,47 @@
         <v>21</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="H65" s="7"/>
+        <v>252</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>253</v>
+      </c>
       <c r="I65" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J65" s="8">
-        <v>120</v>
-      </c>
-      <c r="K65" s="8"/>
+        <v>75</v>
+      </c>
+      <c r="K65" s="8">
+        <v>7</v>
+      </c>
       <c r="L65" s="5" t="s">
         <v>26</v>
       </c>
       <c r="M65" s="5" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="N65" s="6" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="O65" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="P65" s="6" t="s">
-        <v>226</v>
-      </c>
+      <c r="P65" s="7"/>
       <c r="Q65" s="6" t="s">
-        <v>251</v>
+        <v>31</v>
       </c>
       <c r="R65" s="8">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="S65" s="8">
         <v>3</v>
@@ -5584,7 +5551,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
       <c r="A66" s="5" t="s">
         <v>19</v>
       </c>
@@ -5595,165 +5562,165 @@
         <v>21</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="H66" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>257</v>
+      </c>
       <c r="I66" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J66" s="8">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K66" s="8"/>
       <c r="L66" s="5" t="s">
         <v>26</v>
       </c>
       <c r="M66" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="N66" s="7" t="s">
-        <v>140</v>
+        <v>258</v>
+      </c>
+      <c r="N66" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="O66" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P66" s="7"/>
+      <c r="Q66" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="R66" s="8">
+        <v>15</v>
+      </c>
+      <c r="S66" s="8">
+        <v>3</v>
+      </c>
+      <c r="T66" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
+      <c r="A67" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F67" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="P66" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q66" s="6" t="s">
+      <c r="G67" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="R66" s="8">
-        <v>30</v>
-      </c>
-      <c r="S66" s="8">
-        <v>3</v>
-      </c>
-      <c r="T66" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
-      <c r="A67" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C67" s="6" t="s">
+      <c r="H67" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="D67" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="G67" s="6" t="s">
+      <c r="I67" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J67" s="8">
+        <v>15</v>
+      </c>
+      <c r="K67" s="8">
+        <v>5</v>
+      </c>
+      <c r="L67" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M67" s="5" t="s">
         <v>259</v>
-      </c>
-      <c r="H67" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="I67" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="J67" s="8">
-        <v>150</v>
-      </c>
-      <c r="K67" s="8"/>
-      <c r="L67" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M67" s="5" t="s">
-        <v>261</v>
       </c>
       <c r="N67" s="6" t="s">
         <v>39</v>
       </c>
       <c r="O67" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="P67" s="6" t="s">
-        <v>77</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="P67" s="7"/>
       <c r="Q67" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="R67" s="8">
+        <v>10</v>
+      </c>
+      <c r="S67" s="8">
+        <v>3</v>
+      </c>
+      <c r="T67" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
+      <c r="A68" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="H68" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="R67" s="8">
-        <v>150</v>
-      </c>
-      <c r="S67" s="8">
-        <v>3</v>
-      </c>
-      <c r="T67" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
-      <c r="A68" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="G68" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="H68" s="6" t="s">
-        <v>265</v>
-      </c>
       <c r="I68" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J68" s="8">
-        <v>75</v>
-      </c>
-      <c r="K68" s="8">
-        <v>7</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="K68" s="8"/>
       <c r="L68" s="5" t="s">
         <v>26</v>
       </c>
       <c r="M68" s="5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="N68" s="6" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="O68" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="P68" s="7"/>
+        <v>73</v>
+      </c>
+      <c r="P68" s="6" t="s">
+        <v>169</v>
+      </c>
       <c r="Q68" s="6" t="s">
-        <v>31</v>
+        <v>264</v>
       </c>
       <c r="R68" s="8">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="S68" s="8">
         <v>3</v>
@@ -5773,45 +5740,49 @@
         <v>21</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="I69" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J69" s="8">
-        <v>15</v>
-      </c>
-      <c r="K69" s="8"/>
+        <v>80</v>
+      </c>
+      <c r="K69" s="8">
+        <v>50</v>
+      </c>
       <c r="L69" s="5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M69" s="5" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="N69" s="6" t="s">
         <v>39</v>
       </c>
       <c r="O69" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="P69" s="7"/>
+        <v>73</v>
+      </c>
+      <c r="P69" s="6" t="s">
+        <v>169</v>
+      </c>
       <c r="Q69" s="6" t="s">
-        <v>153</v>
+        <v>264</v>
       </c>
       <c r="R69" s="8">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="S69" s="8">
         <v>3</v>
@@ -5831,47 +5802,47 @@
         <v>21</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="I70" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J70" s="8">
-        <v>15</v>
-      </c>
-      <c r="K70" s="8">
-        <v>5</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="K70" s="8"/>
       <c r="L70" s="5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M70" s="5" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="N70" s="6" t="s">
         <v>39</v>
       </c>
       <c r="O70" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="P70" s="7"/>
+        <v>73</v>
+      </c>
+      <c r="P70" s="6" t="s">
+        <v>267</v>
+      </c>
       <c r="Q70" s="6" t="s">
-        <v>153</v>
+        <v>224</v>
       </c>
       <c r="R70" s="8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="S70" s="8">
         <v>3</v>
@@ -5891,47 +5862,47 @@
         <v>21</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="I71" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J71" s="8">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="K71" s="8"/>
       <c r="L71" s="5" t="s">
         <v>26</v>
       </c>
       <c r="M71" s="5" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="N71" s="6" t="s">
         <v>39</v>
       </c>
       <c r="O71" s="6" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="P71" s="6" t="s">
-        <v>177</v>
+        <v>272</v>
       </c>
       <c r="Q71" s="6" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="R71" s="8">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="S71" s="8">
         <v>3</v>
@@ -5951,49 +5922,49 @@
         <v>21</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="I72" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J72" s="8">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="K72" s="8">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="L72" s="5" t="s">
         <v>33</v>
       </c>
       <c r="M72" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="N72" s="6" t="s">
         <v>39</v>
       </c>
       <c r="O72" s="6" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="P72" s="6" t="s">
-        <v>177</v>
+        <v>272</v>
       </c>
       <c r="Q72" s="6" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="R72" s="8">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="S72" s="8">
         <v>3</v>
@@ -6013,25 +5984,25 @@
         <v>21</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>135</v>
+        <v>23</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="I73" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J73" s="8">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="K73" s="8"/>
       <c r="L73" s="5" t="s">
@@ -6044,16 +6015,16 @@
         <v>39</v>
       </c>
       <c r="O73" s="6" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="P73" s="6" t="s">
         <v>279</v>
       </c>
       <c r="Q73" s="6" t="s">
-        <v>231</v>
+        <v>280</v>
       </c>
       <c r="R73" s="8">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="S73" s="8">
         <v>3</v>
@@ -6073,44 +6044,46 @@
         <v>21</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>135</v>
+        <v>23</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G74" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J74" s="8">
+        <v>75</v>
+      </c>
+      <c r="K74" s="8">
+        <v>50</v>
+      </c>
+      <c r="L74" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M74" s="5" t="s">
         <v>281</v>
-      </c>
-      <c r="H74" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="I74" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J74" s="8">
-        <v>25</v>
-      </c>
-      <c r="K74" s="8"/>
-      <c r="L74" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M74" s="5" t="s">
-        <v>283</v>
       </c>
       <c r="N74" s="6" t="s">
         <v>39</v>
       </c>
       <c r="O74" s="6" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="P74" s="6" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="Q74" s="6" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="R74" s="8">
         <v>25</v>
@@ -6133,49 +6106,45 @@
         <v>21</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="I75" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J75" s="8">
-        <v>25</v>
-      </c>
-      <c r="K75" s="8">
         <v>10</v>
       </c>
+      <c r="K75" s="8"/>
       <c r="L75" s="5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M75" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="N75" s="6" t="s">
         <v>39</v>
       </c>
       <c r="O75" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="P75" s="6" t="s">
-        <v>284</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="P75" s="7"/>
       <c r="Q75" s="6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="R75" s="8">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="S75" s="8">
         <v>3</v>
@@ -6195,47 +6164,45 @@
         <v>21</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="I76" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J76" s="8">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="K76" s="8"/>
       <c r="L76" s="5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M76" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="N76" s="6" t="s">
         <v>39</v>
       </c>
       <c r="O76" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="P76" s="6" t="s">
-        <v>291</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="P76" s="7"/>
       <c r="Q76" s="6" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="R76" s="8">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="S76" s="8">
         <v>3</v>
@@ -6255,49 +6222,47 @@
         <v>21</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="I77" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J77" s="8">
-        <v>75</v>
-      </c>
-      <c r="K77" s="8">
-        <v>50</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="K77" s="8"/>
       <c r="L77" s="5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M77" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="N77" s="6" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="O77" s="6" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="P77" s="6" t="s">
-        <v>291</v>
+        <v>223</v>
       </c>
       <c r="Q77" s="6" t="s">
-        <v>292</v>
+        <v>224</v>
       </c>
       <c r="R77" s="8">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="S77" s="8">
         <v>3</v>
@@ -6317,45 +6282,49 @@
         <v>21</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="I78" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J78" s="8">
-        <v>10</v>
-      </c>
-      <c r="K78" s="8"/>
+        <v>60</v>
+      </c>
+      <c r="K78" s="8">
+        <v>40</v>
+      </c>
       <c r="L78" s="5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M78" s="5" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="N78" s="6" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="O78" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="P78" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="P78" s="6" t="s">
+        <v>223</v>
+      </c>
       <c r="Q78" s="6" t="s">
-        <v>298</v>
+        <v>224</v>
       </c>
       <c r="R78" s="8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="S78" s="8">
         <v>3</v>
@@ -6375,45 +6344,47 @@
         <v>21</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>135</v>
+        <v>209</v>
       </c>
       <c r="F79" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="H79" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="G79" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="H79" s="6" t="s">
-        <v>296</v>
-      </c>
       <c r="I79" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J79" s="8">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="K79" s="8"/>
       <c r="L79" s="5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M79" s="5" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="N79" s="6" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="O79" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="P79" s="7"/>
+        <v>122</v>
+      </c>
+      <c r="P79" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="Q79" s="6" t="s">
-        <v>298</v>
+        <v>244</v>
       </c>
       <c r="R79" s="8">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="S79" s="8">
         <v>3</v>
@@ -6433,47 +6404,49 @@
         <v>21</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>135</v>
+        <v>209</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="I80" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J80" s="8">
-        <v>60</v>
-      </c>
-      <c r="K80" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="K80" s="8">
+        <v>16</v>
+      </c>
       <c r="L80" s="5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M80" s="5" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="N80" s="6" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="O80" s="6" t="s">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="P80" s="6" t="s">
-        <v>141</v>
+        <v>48</v>
       </c>
       <c r="Q80" s="6" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="R80" s="8">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="S80" s="8">
         <v>3</v>
@@ -6493,49 +6466,47 @@
         <v>21</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>135</v>
+        <v>209</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="I81" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J81" s="8">
-        <v>60</v>
-      </c>
-      <c r="K81" s="8">
-        <v>40</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="K81" s="8"/>
       <c r="L81" s="5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M81" s="5" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N81" s="6" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="O81" s="6" t="s">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="P81" s="6" t="s">
-        <v>141</v>
+        <v>267</v>
       </c>
       <c r="Q81" s="6" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="R81" s="8">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="S81" s="8">
         <v>3</v>
@@ -6555,47 +6526,47 @@
         <v>21</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>135</v>
+        <v>209</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="I82" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J82" s="8">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="K82" s="8"/>
       <c r="L82" s="5" t="s">
         <v>26</v>
       </c>
       <c r="M82" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="N82" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="O82" s="7" t="s">
-        <v>140</v>
+        <v>300</v>
+      </c>
+      <c r="N82" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O82" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="P82" s="6" t="s">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="Q82" s="6" t="s">
-        <v>231</v>
+        <v>301</v>
       </c>
       <c r="R82" s="8">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="S82" s="8">
         <v>3</v>
@@ -6615,47 +6586,49 @@
         <v>21</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>307</v>
+        <v>270</v>
       </c>
       <c r="I83" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J83" s="8">
-        <v>30</v>
-      </c>
-      <c r="K83" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="K83" s="8">
+        <v>10</v>
+      </c>
       <c r="L83" s="5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M83" s="5" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="N83" s="6" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="O83" s="6" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="P83" s="6" t="s">
-        <v>48</v>
+        <v>179</v>
       </c>
       <c r="Q83" s="6" t="s">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="R83" s="8">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="S83" s="8">
         <v>3</v>
@@ -6675,49 +6648,47 @@
         <v>21</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>307</v>
+        <v>270</v>
       </c>
       <c r="I84" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J84" s="8">
-        <v>36</v>
-      </c>
-      <c r="K84" s="8">
-        <v>16</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="K84" s="8"/>
       <c r="L84" s="5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M84" s="5" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="N84" s="6" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="O84" s="6" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="P84" s="6" t="s">
-        <v>48</v>
+        <v>267</v>
       </c>
       <c r="Q84" s="6" t="s">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="R84" s="8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="S84" s="8">
         <v>3</v>
@@ -6737,47 +6708,47 @@
         <v>21</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>217</v>
+        <v>145</v>
       </c>
       <c r="F85" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="G85" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="G85" s="6" t="s">
+      <c r="H85" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="H85" s="6" t="s">
-        <v>307</v>
-      </c>
       <c r="I85" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J85" s="8">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K85" s="8"/>
       <c r="L85" s="5" t="s">
         <v>26</v>
       </c>
       <c r="M85" s="5" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="N85" s="6" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="O85" s="6" t="s">
-        <v>122</v>
+        <v>44</v>
       </c>
       <c r="P85" s="6" t="s">
-        <v>279</v>
+        <v>57</v>
       </c>
       <c r="Q85" s="6" t="s">
-        <v>251</v>
+        <v>308</v>
       </c>
       <c r="R85" s="8">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S85" s="8">
         <v>3</v>
@@ -6797,47 +6768,49 @@
         <v>21</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>217</v>
+        <v>145</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="I86" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J86" s="8">
-        <v>27</v>
-      </c>
-      <c r="K86" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="K86" s="8">
+        <v>15</v>
+      </c>
       <c r="L86" s="5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M86" s="5" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="N86" s="6" t="s">
         <v>39</v>
       </c>
       <c r="O86" s="6" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="P86" s="6" t="s">
-        <v>187</v>
+        <v>57</v>
       </c>
       <c r="Q86" s="6" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="R86" s="8">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S86" s="8">
         <v>3</v>
@@ -6857,49 +6830,47 @@
         <v>21</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>217</v>
+        <v>159</v>
       </c>
       <c r="F87" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="G87" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="G87" s="6" t="s">
+      <c r="H87" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="H87" s="6" t="s">
-        <v>282</v>
-      </c>
       <c r="I87" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J87" s="8">
-        <v>28</v>
-      </c>
-      <c r="K87" s="8">
-        <v>10</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="K87" s="8"/>
       <c r="L87" s="5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M87" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="N87" s="6" t="s">
         <v>39</v>
       </c>
       <c r="O87" s="6" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="P87" s="6" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="Q87" s="6" t="s">
         <v>314</v>
       </c>
       <c r="R87" s="8">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="S87" s="8">
         <v>3</v>
@@ -6919,47 +6890,49 @@
         <v>21</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>217</v>
+        <v>159</v>
       </c>
       <c r="F88" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="G88" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="G88" s="6" t="s">
+      <c r="H88" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="H88" s="6" t="s">
-        <v>282</v>
-      </c>
       <c r="I88" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J88" s="8">
-        <v>30</v>
-      </c>
-      <c r="K88" s="8"/>
+        <v>96</v>
+      </c>
+      <c r="K88" s="8">
+        <v>40</v>
+      </c>
       <c r="L88" s="5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M88" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N88" s="6" t="s">
         <v>39</v>
       </c>
       <c r="O88" s="6" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="P88" s="6" t="s">
-        <v>279</v>
+        <v>155</v>
       </c>
       <c r="Q88" s="6" t="s">
         <v>314</v>
       </c>
       <c r="R88" s="8">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="S88" s="8">
         <v>3</v>
@@ -6979,47 +6952,49 @@
         <v>21</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="F89" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="G89" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="G89" s="6" t="s">
+      <c r="H89" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="H89" s="6" t="s">
-        <v>319</v>
-      </c>
       <c r="I89" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J89" s="8">
-        <v>38</v>
-      </c>
-      <c r="K89" s="8"/>
+        <v>120</v>
+      </c>
+      <c r="K89" s="8">
+        <v>40</v>
+      </c>
       <c r="L89" s="5" t="s">
         <v>26</v>
       </c>
       <c r="M89" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="N89" s="6" t="s">
         <v>39</v>
       </c>
       <c r="O89" s="6" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="P89" s="6" t="s">
-        <v>57</v>
+        <v>320</v>
       </c>
       <c r="Q89" s="6" t="s">
         <v>321</v>
       </c>
       <c r="R89" s="8">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S89" s="8">
         <v>3</v>
@@ -7039,49 +7014,47 @@
         <v>21</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="I90" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J90" s="8">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="K90" s="8">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="L90" s="5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M90" s="5" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="N90" s="6" t="s">
         <v>39</v>
       </c>
       <c r="O90" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="P90" s="6" t="s">
-        <v>57</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="P90" s="7"/>
       <c r="Q90" s="6" t="s">
-        <v>321</v>
+        <v>144</v>
       </c>
       <c r="R90" s="8">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="S90" s="8">
         <v>3</v>
@@ -7101,47 +7074,49 @@
         <v>21</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="I91" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J91" s="8">
-        <v>97</v>
-      </c>
-      <c r="K91" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="K91" s="8">
+        <v>8</v>
+      </c>
       <c r="L91" s="5" t="s">
         <v>26</v>
       </c>
       <c r="M91" s="5" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="N91" s="6" t="s">
         <v>39</v>
       </c>
       <c r="O91" s="6" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="P91" s="6" t="s">
-        <v>164</v>
+        <v>330</v>
       </c>
       <c r="Q91" s="6" t="s">
-        <v>327</v>
+        <v>199</v>
       </c>
       <c r="R91" s="8">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="S91" s="8">
         <v>3</v>
@@ -7161,49 +7136,49 @@
         <v>21</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="I92" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J92" s="8">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="K92" s="8">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="L92" s="5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M92" s="5" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="N92" s="6" t="s">
         <v>39</v>
       </c>
       <c r="O92" s="6" t="s">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="P92" s="6" t="s">
-        <v>164</v>
+        <v>335</v>
       </c>
       <c r="Q92" s="6" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="R92" s="8">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="S92" s="8">
         <v>3</v>
@@ -7223,47 +7198,49 @@
         <v>21</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="I93" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J93" s="8">
-        <v>20</v>
-      </c>
-      <c r="K93" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="K93" s="8">
+        <v>15</v>
+      </c>
       <c r="L93" s="5" t="s">
         <v>26</v>
       </c>
       <c r="M93" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="N93" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="O93" s="7" t="s">
-        <v>140</v>
+        <v>339</v>
+      </c>
+      <c r="N93" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O93" s="6" t="s">
+        <v>340</v>
       </c>
       <c r="P93" s="6" t="s">
-        <v>141</v>
+        <v>330</v>
       </c>
       <c r="Q93" s="6" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="R93" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S93" s="8">
         <v>3</v>
@@ -7283,49 +7260,45 @@
         <v>21</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="H94" s="6" t="s">
-        <v>332</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="H94" s="7"/>
       <c r="I94" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J94" s="8">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K94" s="8">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="L94" s="5" t="s">
         <v>26</v>
       </c>
       <c r="M94" s="5" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="N94" s="6" t="s">
         <v>39</v>
       </c>
       <c r="O94" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="P94" s="6" t="s">
-        <v>334</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="P94" s="7"/>
       <c r="Q94" s="6" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="R94" s="8">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="S94" s="8">
         <v>3</v>
@@ -7345,47 +7318,47 @@
         <v>21</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="H95" s="6" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="I95" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J95" s="8">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="K95" s="8">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="L95" s="5" t="s">
         <v>26</v>
       </c>
       <c r="M95" s="5" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="N95" s="6" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="O95" s="6" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="P95" s="7"/>
       <c r="Q95" s="6" t="s">
-        <v>153</v>
+        <v>350</v>
       </c>
       <c r="R95" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S95" s="8">
         <v>3</v>
@@ -7405,49 +7378,45 @@
         <v>21</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="I96" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J96" s="8">
-        <v>36</v>
-      </c>
-      <c r="K96" s="8">
-        <v>8</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="K96" s="8"/>
       <c r="L96" s="5" t="s">
         <v>26</v>
       </c>
       <c r="M96" s="5" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="N96" s="6" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="O96" s="6" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="P96" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q96" s="6" t="s">
-        <v>207</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="Q96" s="7"/>
       <c r="R96" s="8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="S96" s="8">
         <v>3</v>
@@ -7467,49 +7436,49 @@
         <v>21</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="I97" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J97" s="8">
-        <v>65</v>
+        <v>235</v>
       </c>
       <c r="K97" s="8">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="L97" s="5" t="s">
         <v>26</v>
       </c>
       <c r="M97" s="5" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="N97" s="6" t="s">
         <v>39</v>
       </c>
       <c r="O97" s="6" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="P97" s="6" t="s">
-        <v>349</v>
+        <v>158</v>
       </c>
       <c r="Q97" s="6" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="R97" s="8">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="S97" s="8">
         <v>3</v>
@@ -7529,49 +7498,49 @@
         <v>21</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="I98" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J98" s="8">
-        <v>36</v>
+        <v>159</v>
       </c>
       <c r="K98" s="8">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="L98" s="5" t="s">
         <v>26</v>
       </c>
       <c r="M98" s="5" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="N98" s="6" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="O98" s="6" t="s">
-        <v>354</v>
+        <v>29</v>
       </c>
       <c r="P98" s="6" t="s">
-        <v>344</v>
+        <v>169</v>
       </c>
       <c r="Q98" s="6" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="R98" s="8">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="S98" s="8">
         <v>3</v>
@@ -7591,45 +7560,47 @@
         <v>21</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>357</v>
+        <v>311</v>
       </c>
       <c r="H99" s="7"/>
       <c r="I99" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J99" s="8">
+        <v>180</v>
+      </c>
+      <c r="K99" s="8">
         <v>50</v>
-      </c>
-      <c r="K99" s="8">
-        <v>15</v>
       </c>
       <c r="L99" s="5" t="s">
         <v>26</v>
       </c>
       <c r="M99" s="5" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="N99" s="6" t="s">
         <v>39</v>
       </c>
       <c r="O99" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="P99" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="P99" s="6" t="s">
+        <v>364</v>
+      </c>
       <c r="Q99" s="6" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="R99" s="8">
-        <v>35</v>
+        <v>130</v>
       </c>
       <c r="S99" s="8">
         <v>3</v>
@@ -7649,47 +7620,49 @@
         <v>21</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>253</v>
+        <v>367</v>
       </c>
       <c r="H100" s="6" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="I100" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J100" s="8">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="K100" s="8">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L100" s="5" t="s">
         <v>26</v>
       </c>
       <c r="M100" s="5" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="N100" s="6" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="O100" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="P100" s="7"/>
+        <v>51</v>
+      </c>
+      <c r="P100" s="6" t="s">
+        <v>272</v>
+      </c>
       <c r="Q100" s="6" t="s">
-        <v>256</v>
+        <v>370</v>
       </c>
       <c r="R100" s="8">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="S100" s="8">
         <v>3</v>
@@ -7709,45 +7682,49 @@
         <v>21</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>154</v>
+        <v>63</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>253</v>
+        <v>372</v>
       </c>
       <c r="H101" s="6" t="s">
-        <v>361</v>
+        <v>328</v>
       </c>
       <c r="I101" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J101" s="8">
-        <v>30</v>
-      </c>
-      <c r="K101" s="8"/>
+        <v>65</v>
+      </c>
+      <c r="K101" s="8">
+        <v>10</v>
+      </c>
       <c r="L101" s="5" t="s">
         <v>26</v>
       </c>
       <c r="M101" s="5" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="N101" s="6" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="O101" s="6" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="P101" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q101" s="7"/>
+        <v>272</v>
+      </c>
+      <c r="Q101" s="6" t="s">
+        <v>374</v>
+      </c>
       <c r="R101" s="8">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="S101" s="8">
         <v>3</v>
@@ -7767,49 +7744,49 @@
         <v>21</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="H102" s="6" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="I102" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J102" s="8">
-        <v>235</v>
+        <v>55</v>
       </c>
       <c r="K102" s="8">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="L102" s="5" t="s">
         <v>26</v>
       </c>
       <c r="M102" s="5" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="N102" s="6" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="O102" s="6" t="s">
-        <v>73</v>
+        <v>379</v>
       </c>
       <c r="P102" s="6" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="Q102" s="6" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="R102" s="8">
-        <v>155</v>
+        <v>40</v>
       </c>
       <c r="S102" s="8">
         <v>3</v>
@@ -7829,53 +7806,51 @@
         <v>21</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="H103" s="6" t="s">
-        <v>366</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="H103" s="7"/>
       <c r="I103" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J103" s="8">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="K103" s="8"/>
       <c r="L103" s="5" t="s">
         <v>26</v>
       </c>
       <c r="M103" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="N103" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="O103" s="7" t="s">
-        <v>140</v>
+        <v>383</v>
+      </c>
+      <c r="N103" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="O103" s="6" t="s">
+        <v>384</v>
       </c>
       <c r="P103" s="6" t="s">
-        <v>141</v>
+        <v>385</v>
       </c>
       <c r="Q103" s="6" t="s">
-        <v>368</v>
+        <v>89</v>
       </c>
       <c r="R103" s="8">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="S103" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T103" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25">
@@ -7889,49 +7864,45 @@
         <v>21</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>144</v>
+        <v>386</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="H104" s="6" t="s">
-        <v>372</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="H104" s="7"/>
       <c r="I104" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J104" s="8">
-        <v>159</v>
-      </c>
-      <c r="K104" s="8">
-        <v>60</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="K104" s="8"/>
       <c r="L104" s="5" t="s">
         <v>26</v>
       </c>
       <c r="M104" s="5" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="N104" s="6" t="s">
         <v>39</v>
       </c>
       <c r="O104" s="6" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="P104" s="6" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="Q104" s="6" t="s">
-        <v>374</v>
+        <v>187</v>
       </c>
       <c r="R104" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="S104" s="8">
         <v>3</v>
@@ -7951,47 +7922,45 @@
         <v>21</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>144</v>
+        <v>386</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>324</v>
+        <v>391</v>
       </c>
       <c r="H105" s="7"/>
       <c r="I105" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J105" s="8">
-        <v>180</v>
-      </c>
-      <c r="K105" s="8">
-        <v>50</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="K105" s="8"/>
       <c r="L105" s="5" t="s">
         <v>26</v>
       </c>
       <c r="M105" s="5" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="N105" s="6" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="O105" s="6" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="P105" s="6" t="s">
-        <v>377</v>
+        <v>213</v>
       </c>
       <c r="Q105" s="6" t="s">
-        <v>378</v>
+        <v>45</v>
       </c>
       <c r="R105" s="8">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="S105" s="8">
         <v>3</v>
@@ -8011,49 +7980,45 @@
         <v>21</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>144</v>
+        <v>386</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="H106" s="6" t="s">
-        <v>381</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="H106" s="7"/>
       <c r="I106" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J106" s="8">
-        <v>65</v>
-      </c>
-      <c r="K106" s="8">
-        <v>15</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="K106" s="8"/>
       <c r="L106" s="5" t="s">
         <v>26</v>
       </c>
       <c r="M106" s="5" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="N106" s="6" t="s">
         <v>39</v>
       </c>
       <c r="O106" s="6" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="P106" s="6" t="s">
-        <v>284</v>
+        <v>396</v>
       </c>
       <c r="Q106" s="6" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="R106" s="8">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="S106" s="8">
         <v>3</v>
@@ -8073,55 +8038,51 @@
         <v>21</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>144</v>
+        <v>386</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>63</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="H107" s="6" t="s">
-        <v>342</v>
+        <v>400</v>
       </c>
       <c r="I107" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J107" s="8">
-        <v>65</v>
-      </c>
-      <c r="K107" s="8">
-        <v>10</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="K107" s="8"/>
       <c r="L107" s="5" t="s">
         <v>26</v>
       </c>
       <c r="M107" s="5" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="N107" s="6" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="O107" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="P107" s="6" t="s">
-        <v>284</v>
-      </c>
+      <c r="P107" s="7"/>
       <c r="Q107" s="6" t="s">
-        <v>387</v>
+        <v>286</v>
       </c>
       <c r="R107" s="8">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="S107" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T107" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="17.25">
@@ -8135,404 +8096,52 @@
         <v>21</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>144</v>
+        <v>386</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="H108" s="6" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="I108" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J108" s="8">
-        <v>55</v>
-      </c>
-      <c r="K108" s="8">
-        <v>15</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="K108" s="8"/>
       <c r="L108" s="5" t="s">
         <v>26</v>
       </c>
       <c r="M108" s="5" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="N108" s="6" t="s">
         <v>28</v>
       </c>
       <c r="O108" s="6" t="s">
-        <v>392</v>
+        <v>29</v>
       </c>
       <c r="P108" s="6" t="s">
-        <v>187</v>
+        <v>406</v>
       </c>
       <c r="Q108" s="6" t="s">
-        <v>393</v>
+        <v>182</v>
       </c>
       <c r="R108" s="8">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="S108" s="8">
         <v>3</v>
       </c>
       <c r="T108" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="17.25">
-      <c r="A109" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F109" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="G109" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="H109" s="7"/>
-      <c r="I109" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J109" s="8">
-        <v>55</v>
-      </c>
-      <c r="K109" s="8"/>
-      <c r="L109" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M109" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="N109" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="O109" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="P109" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="Q109" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="R109" s="8">
-        <v>55</v>
-      </c>
-      <c r="S109" s="8">
-        <v>2</v>
-      </c>
-      <c r="T109" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="17.25">
-      <c r="A110" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F110" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="G110" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="H110" s="7"/>
-      <c r="I110" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J110" s="8">
-        <v>100</v>
-      </c>
-      <c r="K110" s="8"/>
-      <c r="L110" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M110" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="N110" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="O110" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="P110" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q110" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="R110" s="8">
-        <v>100</v>
-      </c>
-      <c r="S110" s="8">
-        <v>3</v>
-      </c>
-      <c r="T110" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="17.25">
-      <c r="A111" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F111" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="G111" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="H111" s="7"/>
-      <c r="I111" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J111" s="8">
-        <v>60</v>
-      </c>
-      <c r="K111" s="8"/>
-      <c r="L111" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M111" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="N111" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="O111" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="P111" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q111" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="R111" s="8">
-        <v>60</v>
-      </c>
-      <c r="S111" s="8">
-        <v>3</v>
-      </c>
-      <c r="T111" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="17.25">
-      <c r="A112" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F112" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="G112" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="H112" s="7"/>
-      <c r="I112" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J112" s="8">
-        <v>55</v>
-      </c>
-      <c r="K112" s="8"/>
-      <c r="L112" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M112" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="N112" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="O112" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="P112" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q112" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="R112" s="8">
-        <v>60</v>
-      </c>
-      <c r="S112" s="8">
-        <v>3</v>
-      </c>
-      <c r="T112" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="17.25">
-      <c r="A113" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F113" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="G113" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="H113" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="I113" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J113" s="8">
-        <v>40</v>
-      </c>
-      <c r="K113" s="8"/>
-      <c r="L113" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M113" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="N113" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="O113" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="P113" s="7"/>
-      <c r="Q113" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="R113" s="8">
-        <v>20</v>
-      </c>
-      <c r="S113" s="8">
-        <v>4</v>
-      </c>
-      <c r="T113" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="17.25">
-      <c r="A114" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F114" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="G114" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="H114" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="I114" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J114" s="8">
-        <v>70</v>
-      </c>
-      <c r="K114" s="8"/>
-      <c r="L114" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M114" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="N114" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="O114" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="P114" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q114" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="R114" s="8">
-        <v>70</v>
-      </c>
-      <c r="S114" s="8">
-        <v>3</v>
-      </c>
-      <c r="T114" s="8">
         <v>3</v>
       </c>
     </row>
